--- a/PairMessage.xlsx
+++ b/PairMessage.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25502"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC1048B831984A405ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{073A59DE-98EE-4C63-9176-9AEF8E3190E7}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC1048B831984A405ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6625309A-9A91-4769-8F92-28582DFC17A4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pair1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
-    <t>Mikail</t>
+    <t>Mikail,</t>
   </si>
   <si>
     <t>If</t>
@@ -56,15 +56,12 @@
     <t>From</t>
   </si>
   <si>
-    <t>Console</t>
+    <t>Console,</t>
   </si>
   <si>
     <t>It</t>
   </si>
   <si>
-    <t>Is</t>
-  </si>
-  <si>
     <t>Means</t>
   </si>
   <si>
@@ -74,7 +71,10 @@
     <t>Doing</t>
   </si>
   <si>
-    <t>Best</t>
+    <t>Our</t>
+  </si>
+  <si>
+    <t>Best!</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -442,10 +442,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
